--- a/target/classes/TestCases/Data.xlsx
+++ b/target/classes/TestCases/Data.xlsx
@@ -33,7 +33,7 @@
     <t>City</t>
   </si>
   <si>
-    <t>Ulsoor, Bangalore</t>
+    <t>Pune</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
